--- a/Mybook/MyBook.xlsx
+++ b/Mybook/MyBook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="460">
   <si>
     <t>数目</t>
   </si>
@@ -1375,6 +1375,30 @@
   </si>
   <si>
     <t>孙宏明</t>
+  </si>
+  <si>
+    <t>Alone on the wall</t>
+  </si>
+  <si>
+    <t>Alex Honnold</t>
+  </si>
+  <si>
+    <t>寻路中国</t>
+  </si>
+  <si>
+    <t>Peter Hessler</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>John Ratey</t>
+  </si>
+  <si>
+    <t>鱼翅与花椒</t>
+  </si>
+  <si>
+    <t>Fuchsia Dunlop</t>
   </si>
 </sst>
 </file>
@@ -1791,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3780,6 +3804,38 @@
         <v>442</v>
       </c>
     </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
